--- a/www/data/contrasenas_nl.xlsx
+++ b/www/data/contrasenas_nl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\Proyectos\QUIPU\Desarrollo de Aplicaciones R Shiny\boleta_gpe\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EC4DD1-73AC-4D68-A0F7-71D44ECEA426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E142C-E861-4D79-BAC1-BEDDC5DE4B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22440" yWindow="1050" windowWidth="17280" windowHeight="8880" xr2:uid="{EB737FD3-E549-E840-80B3-59AC9D2D9FB9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EB737FD3-E549-E840-80B3-59AC9D2D9FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="contraseñas_nl" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>user</t>
   </si>
@@ -61,19 +61,63 @@
   </si>
   <si>
     <t>pass_admin</t>
+  </si>
+  <si>
+    <t>user_1</t>
+  </si>
+  <si>
+    <t>user_2</t>
+  </si>
+  <si>
+    <t>user_3</t>
+  </si>
+  <si>
+    <t>user_4</t>
+  </si>
+  <si>
+    <t>user_5</t>
+  </si>
+  <si>
+    <t>usuario_garcia</t>
+  </si>
+  <si>
+    <t>Verano2025!</t>
+  </si>
+  <si>
+    <t>Cafecito$</t>
+  </si>
+  <si>
+    <t>Domingo100</t>
+  </si>
+  <si>
+    <t>Librosok!</t>
+  </si>
+  <si>
+    <t>Cieloazul1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,20 +477,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46A9392-CF1B-BE4D-9F7E-2CFC430EDDC8}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="19.796875" customWidth="1"/>
     <col min="3" max="3" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -467,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -478,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -489,7 +534,63 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
